--- a/PhoenixCI/Excel_Template/30710.xlsx
+++ b/PhoenixCI/Excel_Template/30710.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8111BB9-1E1D-4736-AE71-A85B7AEE0F87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7F2AFD8-F09C-4C6B-8479-E2637C63F388}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="9720" windowHeight="5880"/>
   </bookViews>
   <sheets>
     <sheet name="價格走勢" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -60,17 +59,26 @@
   <numFmts count="1">
     <numFmt numFmtId="180" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
-      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
       <charset val="136"/>
     </font>
     <font>
@@ -128,20 +136,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -173,33 +186,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="2000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-              </a:rPr>
-              <a:t>台股指數期貨近月份契約指數走勢圖</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="2000">
-              <a:effectLst/>
-              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -255,7 +241,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-6D63-4491-8A4D-5E2036B7A3F2}"/>
+                <c16:uniqueId val="{00000001-0B66-4FC2-A3E6-63A816B4EC61}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -448,7 +434,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6D63-4491-8A4D-5E2036B7A3F2}"/>
+              <c16:uniqueId val="{00000002-0B66-4FC2-A3E6-63A816B4EC61}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -670,7 +656,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6D63-4491-8A4D-5E2036B7A3F2}"/>
+              <c16:uniqueId val="{00000003-0B66-4FC2-A3E6-63A816B4EC61}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -684,11 +670,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="309084552"/>
+        <c:axId val="336757744"/>
         <c:axId val="1"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="309084552"/>
+        <c:axId val="336757744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,7 +757,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309084552"/>
+        <c:crossAx val="336757744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200"/>
@@ -790,10 +776,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.3764262576246418E-2"/>
-          <c:y val="0.83220331040621842"/>
-          <c:w val="0.28645294400333904"/>
-          <c:h val="5.084737910880921E-2"/>
+          <c:x val="8.376421923474664E-2"/>
+          <c:y val="0.83220338983050846"/>
+          <c:w val="0.28645294725956566"/>
+          <c:h val="5.0847457627118647E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -861,7 +847,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="180" r:id="rId1"/>
@@ -874,13 +860,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9209942" cy="5612423"/>
+    <xdr:ext cx="9207500" cy="5615781"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79C6875-C908-4BF7-9E22-06802A575411}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27457C05-B3B1-48FD-808E-97F2D0C4E3B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -907,19 +893,19 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.41932</cdr:x>
-      <cdr:y>0.45086</cdr:y>
+      <cdr:x>0.421</cdr:x>
+      <cdr:y>0.449</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.42768</cdr:x>
-      <cdr:y>0.49639</cdr:y>
+      <cdr:x>0.42925</cdr:x>
+      <cdr:y>0.48975</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="1025" name="Text Box 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D71AC2-D4C1-4FED-A9F2-69E7FE872509}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C208DA18-88E4-41B6-9F9C-29CA74F2677B}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -929,8 +915,8 @@
       </cdr:nvSpPr>
       <cdr:spPr bwMode="auto">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3858247" y="2529415"/>
-          <a:ext cx="76881" cy="255455"/>
+          <a:off x="3877694" y="2523268"/>
+          <a:ext cx="75988" cy="229005"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -994,6 +980,81 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
+      <cdr:x>0.268</cdr:x>
+      <cdr:y>0.02125</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.76225</cdr:x>
+      <cdr:y>0.0975</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="1026" name="Text Box 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6E59E92-C21F-4539-A9FA-ABDE41AADC32}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1">
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2468461" y="119420"/>
+          <a:ext cx="4552376" cy="428506"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+        <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" lIns="45720" tIns="41148" rIns="45720" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:rPr>
+            <a:t>台股指數期貨近月份契約指數走勢圖</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
       <cdr:x>0.61</cdr:x>
       <cdr:y>0.0685</cdr:y>
     </cdr:from>
@@ -1006,7 +1067,7 @@
         <cdr:cNvPr id="1027" name="Text Box 3">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FA09318-63B5-42B1-9496-7D6E2745C3C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2930BE-2FD2-480C-8D00-ED976B411E0A}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1046,13 +1107,6 @@
           </a:ext>
         </a:extLst>
       </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-        </a:p>
-      </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
@@ -1069,7 +1123,7 @@
         <cdr:cNvPr id="1028" name="Text Box 4">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD0BBBEB-6621-4E82-A7FB-115A559DEC6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E00CB81-11D0-4581-8DF8-8278DC04BB70}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1165,7 +1219,7 @@
         <cdr:cNvPr id="1029" name="Text Box 5">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC855E64-27BE-4D7D-B77B-4717AAC7DB3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E35DE0E-DA70-4CB3-9BDE-232C267B44DC}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1258,7 +1312,7 @@
         <cdr:cNvPr id="1068" name="Text Box 44">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E7231CB-1F00-4684-A18E-95CED90399B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1B837D-77AA-454B-A511-AB26B8C88353}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1298,13 +1352,6 @@
           </a:ext>
         </a:extLst>
       </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-        </a:p>
-      </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
@@ -1321,7 +1368,7 @@
         <cdr:cNvPr id="1069" name="Text Box 45">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7683B4F5-B34D-41CF-AA2A-496CDC5D8BC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9C91212-729D-4556-B1EF-6C6039D1F84A}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1361,13 +1408,6 @@
           </a:ext>
         </a:extLst>
       </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-        </a:p>
-      </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
@@ -1384,7 +1424,7 @@
         <cdr:cNvPr id="1070" name="Text Box 46">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA9714E3-8412-494F-9197-2A9E6B8114B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F948F71B-53F2-4431-B8F9-4AE1B0E3C132}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1424,13 +1464,6 @@
           </a:ext>
         </a:extLst>
       </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-        </a:p>
-      </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
@@ -1447,7 +1480,7 @@
         <cdr:cNvPr id="1071" name="Text Box 47">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F626A4-05AB-445B-BFBA-CE526E5FE0D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24FA4D35-3928-42D4-9181-20509383CFDE}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1487,13 +1520,6 @@
           </a:ext>
         </a:extLst>
       </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-        </a:p>
-      </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
@@ -1510,7 +1536,7 @@
         <cdr:cNvPr id="1072" name="Text Box 48">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BDEE5BB-D96C-4016-A65A-B95C9CF69935}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{695C0F2A-963F-4405-8500-254F8C48D13F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1550,13 +1576,6 @@
           </a:ext>
         </a:extLst>
       </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-        </a:p>
-      </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
@@ -1573,7 +1592,7 @@
         <cdr:cNvPr id="1073" name="Text Box 49">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D2C45F-26F2-4835-A9D8-8C1714F4F565}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8908310-C32F-4594-9886-C71520814923}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1613,13 +1632,6 @@
           </a:ext>
         </a:extLst>
       </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-        </a:p>
-      </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
@@ -2015,382 +2027,386 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>38321</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>38322</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>38323</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>38324</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>38327</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>38328</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>38329</v>
       </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="5" customFormat="1">
+      <c r="A9" s="2">
         <v>38330</v>
       </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>38331</v>
       </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>38334</v>
       </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>38335</v>
       </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="5" customFormat="1">
       <c r="A13" s="1">
         <v>38336</v>
       </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" s="5" customFormat="1">
       <c r="A14" s="1">
         <v>38337</v>
       </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" s="5" customFormat="1">
       <c r="A15" s="1">
         <v>38338</v>
       </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>38341</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="7">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="4">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="7">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="7">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="7">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>38342</v>
       </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="B25" s="7">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>38343</v>
       </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B26" s="7">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>38344</v>
       </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4">
+      <c r="B27" s="7">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>38345</v>
       </c>
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="B28" s="7">
+        <v>0</v>
+      </c>
+      <c r="C28" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>38348</v>
       </c>
-      <c r="B29" s="4">
-        <v>0</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="B29" s="7">
+        <v>0</v>
+      </c>
+      <c r="C29" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>38349</v>
       </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B30" s="7">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>38350</v>
       </c>
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="B31" s="7">
+        <v>0</v>
+      </c>
+      <c r="C31" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>38351</v>
       </c>
-      <c r="B32" s="4">
-        <v>0</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="B32" s="7">
+        <v>0</v>
+      </c>
+      <c r="C32" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>38352</v>
       </c>
-      <c r="B33" s="4">
-        <v>0</v>
-      </c>
-      <c r="C33" s="4">
+      <c r="B33" s="7">
+        <v>0</v>
+      </c>
+      <c r="C33" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="9">
         <f>MAX(B2:B33)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="9">
         <f>MAX(C2:C33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="9">
         <f>MIN(B2:B33)</f>
         <v>0</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="9">
         <f>MIN(C2:C33)</f>
         <v>0</v>
       </c>

--- a/PhoenixCI/Excel_Template/30710.xlsx
+++ b/PhoenixCI/Excel_Template/30710.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7F2AFD8-F09C-4C6B-8479-E2637C63F388}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8111BB9-1E1D-4736-AE71-A85B7AEE0F87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="9720" windowHeight="5880"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="價格走勢" sheetId="8" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -59,26 +60,17 @@
   <numFmts count="1">
     <numFmt numFmtId="180" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="新細明體"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="新細明體"/>
       <charset val="136"/>
     </font>
     <font>
@@ -136,25 +128,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -186,6 +173,33 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="2000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>台股指數期貨近月份契約指數走勢圖</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="2000">
+              <a:effectLst/>
+              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -241,7 +255,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-0B66-4FC2-A3E6-63A816B4EC61}"/>
+                <c16:uniqueId val="{00000001-6D63-4491-8A4D-5E2036B7A3F2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -434,7 +448,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0B66-4FC2-A3E6-63A816B4EC61}"/>
+              <c16:uniqueId val="{00000002-6D63-4491-8A4D-5E2036B7A3F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -656,7 +670,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0B66-4FC2-A3E6-63A816B4EC61}"/>
+              <c16:uniqueId val="{00000003-6D63-4491-8A4D-5E2036B7A3F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -670,11 +684,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="336757744"/>
+        <c:axId val="309084552"/>
         <c:axId val="1"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="336757744"/>
+        <c:axId val="309084552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -757,7 +771,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336757744"/>
+        <c:crossAx val="309084552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200"/>
@@ -776,10 +790,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.376421923474664E-2"/>
-          <c:y val="0.83220338983050846"/>
-          <c:w val="0.28645294725956566"/>
-          <c:h val="5.0847457627118647E-2"/>
+          <c:x val="8.3764262576246418E-2"/>
+          <c:y val="0.83220331040621842"/>
+          <c:w val="0.28645294400333904"/>
+          <c:h val="5.084737910880921E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -847,7 +861,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="180" r:id="rId1"/>
@@ -860,13 +874,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9207500" cy="5615781"/>
+    <xdr:ext cx="9209942" cy="5612423"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27457C05-B3B1-48FD-808E-97F2D0C4E3B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79C6875-C908-4BF7-9E22-06802A575411}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,19 +907,19 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.421</cdr:x>
-      <cdr:y>0.449</cdr:y>
+      <cdr:x>0.41932</cdr:x>
+      <cdr:y>0.45086</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.42925</cdr:x>
-      <cdr:y>0.48975</cdr:y>
+      <cdr:x>0.42768</cdr:x>
+      <cdr:y>0.49639</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="1025" name="Text Box 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C208DA18-88E4-41B6-9F9C-29CA74F2677B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D71AC2-D4C1-4FED-A9F2-69E7FE872509}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -915,8 +929,8 @@
       </cdr:nvSpPr>
       <cdr:spPr bwMode="auto">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3877694" y="2523268"/>
-          <a:ext cx="75988" cy="229005"/>
+          <a:off x="3858247" y="2529415"/>
+          <a:ext cx="76881" cy="255455"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -980,81 +994,6 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.268</cdr:x>
-      <cdr:y>0.02125</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.76225</cdr:x>
-      <cdr:y>0.0975</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="1026" name="Text Box 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6E59E92-C21F-4539-A9FA-ABDE41AADC32}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1">
-          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
-        </cdr:cNvSpPr>
-      </cdr:nvSpPr>
-      <cdr:spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2468461" y="119420"/>
-          <a:ext cx="4552376" cy="428506"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:noFill/>
-        </a:ln>
-        <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" lIns="45720" tIns="41148" rIns="45720" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="標楷體"/>
-              <a:ea typeface="標楷體"/>
-            </a:rPr>
-            <a:t>台股指數期貨近月份契約指數走勢圖</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
       <cdr:x>0.61</cdr:x>
       <cdr:y>0.0685</cdr:y>
     </cdr:from>
@@ -1067,7 +1006,7 @@
         <cdr:cNvPr id="1027" name="Text Box 3">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2930BE-2FD2-480C-8D00-ED976B411E0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FA09318-63B5-42B1-9496-7D6E2745C3C5}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1107,6 +1046,13 @@
           </a:ext>
         </a:extLst>
       </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+        </a:p>
+      </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
@@ -1123,7 +1069,7 @@
         <cdr:cNvPr id="1028" name="Text Box 4">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E00CB81-11D0-4581-8DF8-8278DC04BB70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD0BBBEB-6621-4E82-A7FB-115A559DEC6D}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1219,7 +1165,7 @@
         <cdr:cNvPr id="1029" name="Text Box 5">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E35DE0E-DA70-4CB3-9BDE-232C267B44DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC855E64-27BE-4D7D-B77B-4717AAC7DB3F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1312,7 +1258,7 @@
         <cdr:cNvPr id="1068" name="Text Box 44">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1B837D-77AA-454B-A511-AB26B8C88353}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E7231CB-1F00-4684-A18E-95CED90399B0}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1352,6 +1298,13 @@
           </a:ext>
         </a:extLst>
       </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+        </a:p>
+      </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
@@ -1368,7 +1321,7 @@
         <cdr:cNvPr id="1069" name="Text Box 45">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9C91212-729D-4556-B1EF-6C6039D1F84A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7683B4F5-B34D-41CF-AA2A-496CDC5D8BC2}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1408,6 +1361,13 @@
           </a:ext>
         </a:extLst>
       </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+        </a:p>
+      </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
@@ -1424,7 +1384,7 @@
         <cdr:cNvPr id="1070" name="Text Box 46">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F948F71B-53F2-4431-B8F9-4AE1B0E3C132}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA9714E3-8412-494F-9197-2A9E6B8114B6}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1464,6 +1424,13 @@
           </a:ext>
         </a:extLst>
       </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+        </a:p>
+      </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
@@ -1480,7 +1447,7 @@
         <cdr:cNvPr id="1071" name="Text Box 47">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24FA4D35-3928-42D4-9181-20509383CFDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F626A4-05AB-445B-BFBA-CE526E5FE0D9}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1520,6 +1487,13 @@
           </a:ext>
         </a:extLst>
       </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+        </a:p>
+      </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
@@ -1536,7 +1510,7 @@
         <cdr:cNvPr id="1072" name="Text Box 48">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{695C0F2A-963F-4405-8500-254F8C48D13F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BDEE5BB-D96C-4016-A65A-B95C9CF69935}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1576,6 +1550,13 @@
           </a:ext>
         </a:extLst>
       </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+        </a:p>
+      </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
@@ -1592,7 +1573,7 @@
         <cdr:cNvPr id="1073" name="Text Box 49">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8908310-C32F-4594-9886-C71520814923}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D2C45F-26F2-4835-A9D8-8C1714F4F565}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1632,6 +1613,13 @@
           </a:ext>
         </a:extLst>
       </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+        </a:p>
+      </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
@@ -2027,386 +2015,382 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
         <v>38321</v>
       </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
         <v>38322</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
         <v>38323</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
         <v>38324</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
         <v>38327</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
         <v>38328</v>
       </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
         <v>38329</v>
       </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="5" customFormat="1">
-      <c r="A9" s="2">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
         <v>38330</v>
       </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
         <v>38331</v>
       </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
         <v>38334</v>
       </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
         <v>38335</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="5" customFormat="1">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>38336</v>
       </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" s="5" customFormat="1">
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>38337</v>
       </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" s="5" customFormat="1">
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>38338</v>
       </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
         <v>38341</v>
       </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="7">
-        <v>0</v>
-      </c>
-      <c r="C17" s="7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="7">
-        <v>0</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="7">
-        <v>0</v>
-      </c>
-      <c r="C19" s="7">
+      <c r="A19" s="1"/>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="7">
-        <v>0</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="7">
-        <v>0</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="A21" s="1"/>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="7">
-        <v>0</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="A22" s="1"/>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="7">
-        <v>0</v>
-      </c>
-      <c r="C23" s="7">
+      <c r="A23" s="1"/>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="7">
-        <v>0</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="A24" s="1"/>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>38342</v>
       </c>
-      <c r="B25" s="7">
-        <v>0</v>
-      </c>
-      <c r="C25" s="7">
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>38343</v>
       </c>
-      <c r="B26" s="7">
-        <v>0</v>
-      </c>
-      <c r="C26" s="7">
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>38344</v>
       </c>
-      <c r="B27" s="7">
-        <v>0</v>
-      </c>
-      <c r="C27" s="7">
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>38345</v>
       </c>
-      <c r="B28" s="7">
-        <v>0</v>
-      </c>
-      <c r="C28" s="7">
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>38348</v>
       </c>
-      <c r="B29" s="7">
-        <v>0</v>
-      </c>
-      <c r="C29" s="7">
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>38349</v>
       </c>
-      <c r="B30" s="7">
-        <v>0</v>
-      </c>
-      <c r="C30" s="7">
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>38350</v>
       </c>
-      <c r="B31" s="7">
-        <v>0</v>
-      </c>
-      <c r="C31" s="7">
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>38351</v>
       </c>
-      <c r="B32" s="7">
-        <v>0</v>
-      </c>
-      <c r="C32" s="7">
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>38352</v>
       </c>
-      <c r="B33" s="7">
-        <v>0</v>
-      </c>
-      <c r="C33" s="7">
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="6">
         <f>MAX(B2:B33)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="6">
         <f>MAX(C2:C33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="6">
         <f>MIN(B2:B33)</f>
         <v>0</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="6">
         <f>MIN(C2:C33)</f>
         <v>0</v>
       </c>
